--- a/log/tripletloss/accuracy_without_9.xlsx
+++ b/log/tripletloss/accuracy_without_9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humbe\Documents\TU_Dortmund\3_WS_2019_2020\Computer Vision Deep Learning\CVDL-Parametrizable-Classification\log\tripletloss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342702A9-5AB5-4A5B-94B3-B8CE7C027F95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774B9808-DDDB-4B56-84E3-EF7E9DFC8639}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,7 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -68,6 +75,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -375,7 +385,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,7 +457,7 @@
       <c r="J2" s="2">
         <v>0.99878118809490568</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>0.99376185612140666</v>
       </c>
     </row>
@@ -482,7 +492,7 @@
       <c r="J3" s="2">
         <v>0.99955681713132893</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>0.99571505556955298</v>
       </c>
     </row>
@@ -517,7 +527,7 @@
       <c r="J4" s="2">
         <v>0.9974700023824643</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <v>0.99512628362046407</v>
       </c>
     </row>
@@ -552,7 +562,7 @@
       <c r="J5" s="2">
         <v>0.99876446004459352</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>0.99761275504585711</v>
       </c>
     </row>
@@ -587,7 +597,7 @@
       <c r="J6" s="2">
         <v>0.99889367667072104</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <v>0.64643504360629744</v>
       </c>
     </row>
@@ -622,7 +632,7 @@
       <c r="J7" s="2">
         <v>0.99893764641966076</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <v>0.99234407567740901</v>
       </c>
     </row>
@@ -657,7 +667,7 @@
       <c r="J8" s="2">
         <v>0.99854267951514297</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>0.99886902688626822</v>
       </c>
     </row>
@@ -692,7 +702,7 @@
       <c r="J9" s="2">
         <v>0.99947661845485358</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>0.92131497194788337</v>
       </c>
     </row>
@@ -727,7 +737,7 @@
       <c r="J10" s="2">
         <v>0.90552733001675911</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="4">
         <v>0.93263858301114211</v>
       </c>
     </row>
@@ -762,11 +772,12 @@
       <c r="J11" s="3">
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>0.89237036416745885</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>